--- a/2020/보자보자.xlsx
+++ b/2020/보자보자.xlsx
@@ -12,13 +12,13 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="19410" windowHeight="7155"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet5" sheetId="5" r:id="rId1"/>
+    <sheet name="Sheet4" sheetId="7" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="28" r:id="rId4"/>
+    <pivotCache cacheId="11" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="125">
   <si>
     <t>결</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,10 +59,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">학생 수 교사 수 ratioi가 높을 수록 학생 수 전출 ratio가 높다. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>어쩌다 알게된 결</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -188,119 +184,178 @@
   </si>
   <si>
     <t>진학률이 0.5이상인 학교들의 특징</t>
-  </si>
-  <si>
-    <t>진학률이 0.5이상인 학교들의 특징</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재수가 0.5이상인 학교들의 특징</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학과 수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역 총생산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평당가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>집값 모멘텀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>취업률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진학률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재수률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전출비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전입비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교사성비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">학생 교사비 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학생 남교사 비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학생 여교사 비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학생 특수교실 비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학생 학교크기 비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">학교크기 교실 수 비 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.4(2.1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>36808(8685.35)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1359.12(1224.12)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.5(5.3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.38(0.157)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.6(0.08)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.25(0.07)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.53(0.32)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.04(0.03)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.022(0.02)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.55(0.22)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.06(0.03)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.025(0.02)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.03(0.02)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>94(115.8)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1192(1166.64)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>취업률이 0.5이상인 학교들의 특징</t>
-  </si>
-  <si>
-    <t>재수가 0.5이상인 학교들의 특징</t>
-  </si>
-  <si>
-    <t>재수가 0.5이상인 학교들의 특징</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>분류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>개수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>학과 수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지역 총생산</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>평당가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>집값 모멘텀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>취업률</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>진학률</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>재수률</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>성비</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전출비</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전입비</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>교사성비</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">학생 교사비 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>학생 남교사 비</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>학생 여교사 비</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>학생 특수교실 비</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>학생 학교크기 비</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">학교크기 교실 수 비 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.4(2.1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>36808(8685.35)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1359.12(1224.12)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.5(5.3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.38(0.157)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.6(0.08)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.2(2.2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>38155(7871.8)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1269.4(1088)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.75(4.4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.6(0.076)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.36(0.15)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -308,7 +363,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0.53(0.32)</t>
+    <t>0.4(0.37)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.01(0.02)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -316,19 +375,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0.022(0.02)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.55(0.22)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.06(0.03)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.025(0.02)</t>
+    <t>0.47(0.22)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.05(0.02)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -336,70 +387,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>94(115.8)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1192(1166.64)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>취업률이 0.5이상인 학교들의 특징</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.2(2.2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>38155(7871.8)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1269.4(1088)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.75(4.4)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.6(0.076)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.36(0.15)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.25(0.07)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.4(0.37)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.01(0.02)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.04(0.03)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.47(0.22)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.05(0.02)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.03(0.02)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0.026(0.014)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -496,6 +483,46 @@
   </si>
   <si>
     <t>총합계</t>
+  </si>
+  <si>
+    <t xml:space="preserve">학생 수 교사 수 ratio가 높을 수록 학생 수 전출 ratio가 높다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">내가 이 분석을 통해 하고 싶었던 말은 취업률·진학률 전혀 중요한 지표가 아니다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">부의 되물림이 된다는 가정 하에 취업률과 진학률은 지역 평당가, 모멘텀 전혀 중요하지 않았다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt;학교 홍보에서 진학률과 취업률에 관한 정보는 기제하지 못하게 해야 한다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진학률이 0.5이상인 학교</t>
+  </si>
+  <si>
+    <t>진학률이 0.5이상인 학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>취업률이 0.5이상인 학교</t>
+  </si>
+  <si>
+    <t>취업률이 0.5이상인 학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재수가 0.5이상인 학교</t>
+  </si>
+  <si>
+    <t>재수가 0.5이상인 학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>합계 : 성비</t>
   </si>
 </sst>
 </file>
@@ -541,18 +568,21 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -585,10 +615,66 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[보자보자.xlsx]Sheet5!피벗 테이블14</c:name>
+    <c:name>[보자보자.xlsx]Sheet4!피벗 테이블4</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US"/>
+              <a:t>평당가</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:pivotFmts>
       <c:pivotFmt>
@@ -666,336 +752,6 @@
           <c:symbol val="none"/>
         </c:marker>
       </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="5"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="6"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="7"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="8"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="9"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="10"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="11"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="12"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="13"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="14"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="15"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="16"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="17"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="18"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="19"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="20"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="21"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="22"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="23"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="24"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="25"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="26"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -1003,6 +759,66 @@
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>요약</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet4!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>재수가 0.5이상인 학교</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>진학률이 0.5이상인 학교</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>취업률이 0.5이상인 학교</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$B$2:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -1013,11 +829,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="763668160"/>
-        <c:axId val="763660544"/>
+        <c:axId val="1181174288"/>
+        <c:axId val="1181185168"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="763668160"/>
+        <c:axId val="1181174288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1060,7 +876,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="763660544"/>
+        <c:crossAx val="1181185168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1068,7 +884,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="763660544"/>
+        <c:axId val="1181185168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1119,7 +935,539 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="763668160"/>
+        <c:crossAx val="1181174288"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>진학률</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$22:$A$27</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>정보, 소프트웨어, 컴퓨터, 인터넷</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>상업</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>기계</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>공업</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>항공</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>세무</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$22:$C$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.42699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.443</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>취업률</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$22:$A$27</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>정보, 소프트웨어, 컴퓨터, 인터넷</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>상업</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>기계</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>공업</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>항공</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>세무</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$22:$D$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.52600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.46400000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>재수률</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$22:$A$27</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>정보, 소프트웨어, 컴퓨터, 인터넷</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>상업</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>기계</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>공업</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>항공</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>세무</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$22:$E$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="842543840"/>
+        <c:axId val="842534048"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$21</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>개수</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$22:$A$27</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>정보, 소프트웨어, 컴퓨터, 인터넷</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>상업</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>기계</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>공업</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>항공</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>세무</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$22:$B$27</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>38</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>42</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>83</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>6</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="842543840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="842534048"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="842534048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="842543840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1132,7 +1480,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -1197,17 +1545,6 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:extLst>
-    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
-      <c14:pivotOptions>
-        <c14:dropZoneFilter val="1"/>
-        <c14:dropZoneCategories val="1"/>
-        <c14:dropZoneData val="1"/>
-        <c14:dropZoneSeries val="1"/>
-        <c14:dropZonesVisible val="1"/>
-      </c14:pivotOptions>
-    </c:ext>
-  </c:extLst>
 </c:chartSpace>
 </file>
 
@@ -1251,6 +1588,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -1754,20 +2131,558 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2000250</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="차트 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>74543</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>127552</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>74543</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>178904</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1790,95 +2705,71 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="정지원" refreshedDate="44353.625455208334" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="3">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="정지원" refreshedDate="44356.03867199074" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="3">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A2:S5" sheet="Sheet1"/>
+    <worksheetSource ref="A33:S36" sheet="Sheet1"/>
   </cacheSource>
   <cacheFields count="19">
     <cacheField name="분류" numFmtId="0">
       <sharedItems count="3">
-        <s v="진학률이 0.5이상인 학교들의 특징"/>
-        <s v="취업률이 0.5이상인 학교들의 특징"/>
-        <s v="재수가 0.5이상인 학교들의 특징"/>
+        <s v="진학률이 0.5이상인 학교"/>
+        <s v="취업률이 0.5이상인 학교"/>
+        <s v="재수가 0.5이상인 학교"/>
       </sharedItems>
     </cacheField>
     <cacheField name="개수" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="8" maxValue="177"/>
     </cacheField>
     <cacheField name="학과 수" numFmtId="0">
-      <sharedItems count="3">
-        <s v="4.4(2.1)"/>
-        <s v="4.2(2.2)"/>
-        <s v="4.6(2.3)"/>
-      </sharedItems>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="4.2" maxValue="4.5999999999999996"/>
     </cacheField>
     <cacheField name="지역 총생산" numFmtId="0">
-      <sharedItems count="3">
-        <s v="36808(8685.35)"/>
-        <s v="38155(7871.8)"/>
-        <s v="31289(12713)"/>
-      </sharedItems>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="31289" maxValue="38155"/>
     </cacheField>
     <cacheField name="평당가" numFmtId="0">
-      <sharedItems count="3">
-        <s v="1359.12(1224.12)"/>
-        <s v="1269.4(1088)"/>
-        <s v="1063(548)"/>
-      </sharedItems>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1063" maxValue="1359.12"/>
     </cacheField>
     <cacheField name="집값 모멘텀" numFmtId="0">
-      <sharedItems count="3">
-        <s v="5.5(5.3)"/>
-        <s v="4.75(4.4)"/>
-        <s v="6.3(6)"/>
-      </sharedItems>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="4.75" maxValue="6.3"/>
     </cacheField>
     <cacheField name="취업률" numFmtId="0">
-      <sharedItems/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.25" maxValue="0.6"/>
     </cacheField>
     <cacheField name="진학률" numFmtId="0">
-      <sharedItems/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.2" maxValue="0.6"/>
     </cacheField>
     <cacheField name="재수률" numFmtId="0">
-      <sharedItems/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.25" maxValue="0.6"/>
     </cacheField>
     <cacheField name="성비" numFmtId="0">
-      <sharedItems/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.22" maxValue="0.53"/>
     </cacheField>
     <cacheField name="전출비" numFmtId="0">
-      <sharedItems/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.04" maxValue="0.08"/>
     </cacheField>
     <cacheField name="전입비" numFmtId="0">
-      <sharedItems/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.01" maxValue="2.1999999999999999E-2"/>
     </cacheField>
     <cacheField name="교사성비" numFmtId="0">
-      <sharedItems count="3">
-        <s v="0.55(0.22)"/>
-        <s v="0.47(0.22)"/>
-        <s v="0.47(0.19)"/>
-      </sharedItems>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.47" maxValue="0.55000000000000004"/>
     </cacheField>
     <cacheField name="학생 교사비 " numFmtId="0">
-      <sharedItems count="3">
-        <s v="0.06(0.03)"/>
-        <s v="0.05(0.02)"/>
-        <s v="0.1(0.07)"/>
-      </sharedItems>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.05" maxValue="0.1"/>
     </cacheField>
     <cacheField name="학생 남교사 비" numFmtId="0">
-      <sharedItems/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="2.5000000000000001E-2" maxValue="0.05"/>
     </cacheField>
     <cacheField name="학생 여교사 비" numFmtId="0">
-      <sharedItems/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="2.5999999999999999E-2" maxValue="0.04"/>
     </cacheField>
     <cacheField name="학생 특수교실 비" numFmtId="0">
-      <sharedItems/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.06" maxValue="0.09"/>
     </cacheField>
     <cacheField name="학생 학교크기 비" numFmtId="0">
-      <sharedItems/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="94" maxValue="243"/>
     </cacheField>
     <cacheField name="학교크기 교실 수 비 " numFmtId="0">
-      <sharedItems/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1192" maxValue="1472"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -1894,72 +2785,72 @@
   <r>
     <x v="0"/>
     <n v="154"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <s v="0.38(0.157)"/>
-    <s v="0.6(0.08)"/>
-    <s v="0.25(0.07)"/>
-    <s v="0.53(0.32)"/>
-    <s v="0.04(0.03)"/>
-    <s v="0.022(0.02)"/>
-    <x v="0"/>
-    <x v="0"/>
-    <s v="0.025(0.02)"/>
-    <s v="0.03(0.02)"/>
-    <s v="0.06(0.025)"/>
-    <s v="94(115.8)"/>
-    <s v="1192(1166.64)"/>
+    <n v="4.4000000000000004"/>
+    <n v="36808"/>
+    <n v="1359.12"/>
+    <n v="5.5"/>
+    <n v="0.38"/>
+    <n v="0.6"/>
+    <n v="0.25"/>
+    <n v="0.53"/>
+    <n v="0.04"/>
+    <n v="2.1999999999999999E-2"/>
+    <n v="0.55000000000000004"/>
+    <n v="0.06"/>
+    <n v="2.5000000000000001E-2"/>
+    <n v="0.03"/>
+    <n v="0.06"/>
+    <n v="94"/>
+    <n v="1192"/>
   </r>
   <r>
     <x v="1"/>
     <n v="177"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <s v="0.6(0.076)"/>
-    <s v="0.36(0.15)"/>
-    <s v="0.25(0.07)"/>
-    <s v="0.4(0.37)"/>
-    <s v="0.04(0.03)"/>
-    <s v="0.01(0.02)"/>
-    <x v="1"/>
-    <x v="1"/>
-    <s v="0.03(0.02)"/>
-    <s v="0.026(0.014)"/>
-    <s v="0.06(0.033)"/>
-    <s v="99(115.8)"/>
-    <s v="1290(1124.95)"/>
+    <n v="4.2"/>
+    <n v="38155"/>
+    <n v="1269.4000000000001"/>
+    <n v="4.75"/>
+    <n v="0.6"/>
+    <n v="0.36"/>
+    <n v="0.25"/>
+    <n v="0.4"/>
+    <n v="0.04"/>
+    <n v="0.01"/>
+    <n v="0.47"/>
+    <n v="0.05"/>
+    <n v="0.03"/>
+    <n v="2.5999999999999999E-2"/>
+    <n v="0.06"/>
+    <n v="99"/>
+    <n v="1290"/>
   </r>
   <r>
     <x v="2"/>
     <n v="8"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="2"/>
-    <s v="0.25(0.11)"/>
-    <s v="0.2(0.11)"/>
-    <s v="0.6(0.15)"/>
-    <s v="0.22(0.22)"/>
-    <s v="0.08(0.06)"/>
-    <s v="0.02(0.02)"/>
-    <x v="2"/>
-    <x v="2"/>
-    <s v="0.05(0.03)"/>
-    <s v="0.04(0.04)"/>
-    <s v="0.09(0.04)"/>
-    <s v="243(450)"/>
-    <s v="1472(1834)"/>
+    <n v="4.5999999999999996"/>
+    <n v="31289"/>
+    <n v="1063"/>
+    <n v="6.3"/>
+    <n v="0.25"/>
+    <n v="0.2"/>
+    <n v="0.6"/>
+    <n v="0.22"/>
+    <n v="0.08"/>
+    <n v="0.02"/>
+    <n v="0.47"/>
+    <n v="0.1"/>
+    <n v="0.05"/>
+    <n v="0.04"/>
+    <n v="0.09"/>
+    <n v="243"/>
+    <n v="1472"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="피벗 테이블14" cacheId="28" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="A3:A7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="피벗 테이블4" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A1:B5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="19">
     <pivotField axis="axisRow" showAll="0">
       <items count="4">
@@ -1970,60 +2861,18 @@
       </items>
     </pivotField>
     <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="2"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -2050,6 +2899,20 @@
   <colItems count="1">
     <i/>
   </colItems>
+  <dataFields count="1">
+    <dataField name="합계 : 성비" fld="9" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -2322,46 +3185,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:A7"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.375" customWidth="1"/>
-    <col min="2" max="2" width="14.625" customWidth="1"/>
-    <col min="3" max="3" width="16.5" customWidth="1"/>
-    <col min="4" max="4" width="15.25" customWidth="1"/>
-    <col min="5" max="5" width="7.375" customWidth="1"/>
-    <col min="6" max="6" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.375" customWidth="1"/>
+    <col min="1" max="1" width="23.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1.1499999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -2373,10 +3246,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S18"/>
+  <dimension ref="A1:S42"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:S5"/>
+    <sheetView topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2390,394 +3263,787 @@
     <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
     <col min="8" max="11" width="9.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="32.375" customWidth="1"/>
+    <col min="15" max="15" width="18" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.375" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="16.5" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
+      <c r="C1" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" t="s">
         <v>44</v>
       </c>
-      <c r="B2" t="s">
+      <c r="F2" t="s">
         <v>45</v>
       </c>
-      <c r="C2" t="s">
+      <c r="G2" t="s">
         <v>46</v>
       </c>
-      <c r="D2" t="s">
+      <c r="H2" t="s">
         <v>47</v>
       </c>
-      <c r="E2" t="s">
+      <c r="I2" t="s">
         <v>48</v>
       </c>
-      <c r="F2" t="s">
+      <c r="J2" t="s">
         <v>49</v>
       </c>
-      <c r="G2" t="s">
+      <c r="K2" t="s">
         <v>50</v>
       </c>
-      <c r="H2" t="s">
+      <c r="L2" t="s">
         <v>51</v>
       </c>
-      <c r="I2" t="s">
+      <c r="M2" t="s">
         <v>52</v>
       </c>
-      <c r="J2" t="s">
+      <c r="N2" t="s">
         <v>53</v>
       </c>
-      <c r="K2" t="s">
+      <c r="O2" t="s">
         <v>54</v>
       </c>
-      <c r="L2" t="s">
+      <c r="P2" t="s">
         <v>55</v>
       </c>
-      <c r="M2" t="s">
+      <c r="Q2" t="s">
         <v>56</v>
       </c>
-      <c r="N2" t="s">
+      <c r="R2" t="s">
         <v>57</v>
       </c>
-      <c r="O2" t="s">
+      <c r="S2" t="s">
         <v>58</v>
-      </c>
-      <c r="P2" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>60</v>
-      </c>
-      <c r="R2" t="s">
-        <v>61</v>
-      </c>
-      <c r="S2" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B3">
         <v>154</v>
       </c>
       <c r="C3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G3" t="s">
         <v>63</v>
       </c>
-      <c r="D3" t="s">
+      <c r="H3" t="s">
         <v>64</v>
       </c>
-      <c r="E3" t="s">
+      <c r="I3" t="s">
         <v>65</v>
       </c>
-      <c r="F3" t="s">
+      <c r="J3" t="s">
         <v>66</v>
       </c>
-      <c r="G3" t="s">
+      <c r="K3" t="s">
         <v>67</v>
       </c>
-      <c r="H3" t="s">
+      <c r="L3" t="s">
         <v>68</v>
       </c>
-      <c r="I3" t="s">
+      <c r="M3" t="s">
         <v>69</v>
       </c>
-      <c r="J3" t="s">
+      <c r="N3" t="s">
         <v>70</v>
       </c>
-      <c r="K3" t="s">
+      <c r="O3" t="s">
         <v>71</v>
       </c>
-      <c r="L3" t="s">
+      <c r="P3" t="s">
         <v>72</v>
       </c>
-      <c r="M3" t="s">
+      <c r="Q3" t="s">
+        <v>90</v>
+      </c>
+      <c r="R3" t="s">
         <v>73</v>
       </c>
-      <c r="N3" t="s">
+      <c r="S3" t="s">
         <v>74</v>
-      </c>
-      <c r="O3" t="s">
-        <v>75</v>
-      </c>
-      <c r="P3" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>94</v>
-      </c>
-      <c r="R3" t="s">
-        <v>77</v>
-      </c>
-      <c r="S3" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B4">
         <v>177</v>
       </c>
       <c r="C4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G4" t="s">
         <v>80</v>
       </c>
-      <c r="D4" t="s">
+      <c r="H4" t="s">
         <v>81</v>
       </c>
-      <c r="E4" t="s">
+      <c r="I4" t="s">
         <v>82</v>
       </c>
-      <c r="F4" t="s">
+      <c r="J4" t="s">
         <v>83</v>
       </c>
-      <c r="G4" t="s">
+      <c r="K4" t="s">
+        <v>85</v>
+      </c>
+      <c r="L4" t="s">
         <v>84</v>
       </c>
-      <c r="H4" t="s">
-        <v>85</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="M4" t="s">
         <v>86</v>
       </c>
-      <c r="J4" t="s">
+      <c r="N4" t="s">
         <v>87</v>
       </c>
-      <c r="K4" t="s">
+      <c r="O4" t="s">
+        <v>88</v>
+      </c>
+      <c r="P4" t="s">
         <v>89</v>
       </c>
-      <c r="L4" t="s">
-        <v>88</v>
-      </c>
-      <c r="M4" t="s">
-        <v>90</v>
-      </c>
-      <c r="N4" t="s">
+      <c r="Q4" t="s">
         <v>91</v>
       </c>
-      <c r="O4" t="s">
+      <c r="R4" t="s">
         <v>92</v>
       </c>
-      <c r="P4" t="s">
+      <c r="S4" t="s">
         <v>93</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>95</v>
-      </c>
-      <c r="R4" t="s">
-        <v>96</v>
-      </c>
-      <c r="S4" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B5">
         <v>8</v>
       </c>
       <c r="C5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F5" t="s">
         <v>98</v>
       </c>
-      <c r="D5" t="s">
+      <c r="G5" t="s">
         <v>99</v>
       </c>
-      <c r="E5" t="s">
+      <c r="H5" t="s">
         <v>100</v>
       </c>
-      <c r="F5" t="s">
+      <c r="I5" t="s">
+        <v>101</v>
+      </c>
+      <c r="J5" t="s">
         <v>102</v>
       </c>
-      <c r="G5" t="s">
+      <c r="K5" t="s">
         <v>103</v>
       </c>
-      <c r="H5" t="s">
+      <c r="L5" t="s">
         <v>104</v>
       </c>
-      <c r="I5" t="s">
+      <c r="M5" t="s">
         <v>105</v>
       </c>
-      <c r="J5" t="s">
+      <c r="N5" t="s">
         <v>106</v>
       </c>
-      <c r="K5" t="s">
+      <c r="O5" t="s">
         <v>107</v>
       </c>
-      <c r="L5" t="s">
+      <c r="P5" t="s">
         <v>108</v>
       </c>
-      <c r="M5" t="s">
+      <c r="Q5" t="s">
         <v>109</v>
       </c>
-      <c r="N5" t="s">
+      <c r="R5" t="s">
         <v>110</v>
       </c>
-      <c r="O5" t="s">
+      <c r="S5" t="s">
         <v>111</v>
       </c>
-      <c r="P5" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>113</v>
-      </c>
-      <c r="R5" t="s">
-        <v>114</v>
-      </c>
-      <c r="S5" t="s">
-        <v>115</v>
-      </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="C11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
         <v>16</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>17</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>18</v>
-      </c>
-      <c r="E12" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13">
         <v>38</v>
       </c>
       <c r="C13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" t="s">
         <v>20</v>
       </c>
-      <c r="D13" t="s">
-        <v>21</v>
-      </c>
       <c r="E13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14">
         <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15">
         <v>11</v>
       </c>
       <c r="C15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" t="s">
         <v>24</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>25</v>
-      </c>
-      <c r="E15" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16">
         <v>83</v>
       </c>
       <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" t="s">
         <v>28</v>
-      </c>
-      <c r="D16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B17">
         <v>19</v>
       </c>
       <c r="C17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" t="s">
         <v>32</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>33</v>
-      </c>
-      <c r="E17" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18">
         <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" t="s">
         <v>37</v>
       </c>
-      <c r="E18" t="s">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22">
         <v>38</v>
       </c>
+      <c r="C22">
+        <v>0.49</v>
+      </c>
+      <c r="D22">
+        <v>0.43</v>
+      </c>
+      <c r="E22">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23">
+        <v>42</v>
+      </c>
+      <c r="C23">
+        <v>0.39</v>
+      </c>
+      <c r="D23">
+        <v>0.49</v>
+      </c>
+      <c r="E23">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24">
+        <v>11</v>
+      </c>
+      <c r="C24">
+        <v>0.37</v>
+      </c>
+      <c r="D24">
+        <v>0.52600000000000002</v>
+      </c>
+      <c r="E24">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25">
+        <v>83</v>
+      </c>
+      <c r="C25">
+        <v>0.42</v>
+      </c>
+      <c r="D25">
+        <v>0.51</v>
+      </c>
+      <c r="E25">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26">
+        <v>19</v>
+      </c>
+      <c r="C26">
+        <v>0.42699999999999999</v>
+      </c>
+      <c r="D26">
+        <v>0.47</v>
+      </c>
+      <c r="E26">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27">
+        <v>6</v>
+      </c>
+      <c r="C27">
+        <v>0.443</v>
+      </c>
+      <c r="D27">
+        <v>0.46400000000000002</v>
+      </c>
+      <c r="E27">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C29">
+        <f>AVERAGE(C22:C27)</f>
+        <v>0.42333333333333334</v>
+      </c>
+      <c r="D29">
+        <f>AVERAGE(D22:D27)</f>
+        <v>0.48166666666666669</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C30">
+        <f>_xlfn.STDEV.P(C22:C27)</f>
+        <v>3.8321737376527637E-2</v>
+      </c>
+      <c r="D30">
+        <f>_xlfn.STDEV.P(D22:D27)</f>
+        <v>3.1504849714854316E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" t="s">
+        <v>42</v>
+      </c>
+      <c r="D33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>45</v>
+      </c>
+      <c r="G33" t="s">
+        <v>17</v>
+      </c>
+      <c r="H33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I33" t="s">
+        <v>18</v>
+      </c>
+      <c r="J33" t="s">
+        <v>49</v>
+      </c>
+      <c r="K33" t="s">
+        <v>50</v>
+      </c>
+      <c r="L33" t="s">
+        <v>51</v>
+      </c>
+      <c r="M33" t="s">
+        <v>52</v>
+      </c>
+      <c r="N33" t="s">
+        <v>53</v>
+      </c>
+      <c r="O33" t="s">
+        <v>54</v>
+      </c>
+      <c r="P33" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>56</v>
+      </c>
+      <c r="R33" t="s">
+        <v>57</v>
+      </c>
+      <c r="S33" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>119</v>
+      </c>
+      <c r="B34">
+        <v>154</v>
+      </c>
+      <c r="C34">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D34">
+        <v>36808</v>
+      </c>
+      <c r="E34">
+        <v>1359.12</v>
+      </c>
+      <c r="F34">
+        <v>5.5</v>
+      </c>
+      <c r="G34">
+        <v>0.38</v>
+      </c>
+      <c r="H34">
+        <v>0.6</v>
+      </c>
+      <c r="I34">
+        <v>0.25</v>
+      </c>
+      <c r="J34">
+        <v>0.53</v>
+      </c>
+      <c r="K34">
+        <v>0.04</v>
+      </c>
+      <c r="L34">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="M34">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="N34">
+        <v>0.06</v>
+      </c>
+      <c r="O34">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="P34">
+        <v>0.03</v>
+      </c>
+      <c r="Q34">
+        <v>0.06</v>
+      </c>
+      <c r="R34">
+        <v>94</v>
+      </c>
+      <c r="S34">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>121</v>
+      </c>
+      <c r="B35">
+        <v>177</v>
+      </c>
+      <c r="C35">
+        <v>4.2</v>
+      </c>
+      <c r="D35">
+        <v>38155</v>
+      </c>
+      <c r="E35">
+        <v>1269.4000000000001</v>
+      </c>
+      <c r="F35">
+        <v>4.75</v>
+      </c>
+      <c r="G35">
+        <v>0.6</v>
+      </c>
+      <c r="H35">
+        <v>0.36</v>
+      </c>
+      <c r="I35">
+        <v>0.25</v>
+      </c>
+      <c r="J35">
+        <v>0.4</v>
+      </c>
+      <c r="K35">
+        <v>0.04</v>
+      </c>
+      <c r="L35">
+        <v>0.01</v>
+      </c>
+      <c r="M35">
+        <v>0.47</v>
+      </c>
+      <c r="N35">
+        <v>0.05</v>
+      </c>
+      <c r="O35">
+        <v>0.03</v>
+      </c>
+      <c r="P35">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="Q35">
+        <v>0.06</v>
+      </c>
+      <c r="R35">
+        <v>99</v>
+      </c>
+      <c r="S35">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>123</v>
+      </c>
+      <c r="B36">
+        <v>8</v>
+      </c>
+      <c r="C36">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D36">
+        <v>31289</v>
+      </c>
+      <c r="E36">
+        <v>1063</v>
+      </c>
+      <c r="F36">
+        <v>6.3</v>
+      </c>
+      <c r="G36">
+        <v>0.25</v>
+      </c>
+      <c r="H36">
+        <v>0.2</v>
+      </c>
+      <c r="I36">
+        <v>0.6</v>
+      </c>
+      <c r="J36">
+        <v>0.22</v>
+      </c>
+      <c r="K36">
+        <v>0.08</v>
+      </c>
+      <c r="L36">
+        <v>0.02</v>
+      </c>
+      <c r="M36">
+        <v>0.47</v>
+      </c>
+      <c r="N36">
+        <v>0.1</v>
+      </c>
+      <c r="O36">
+        <v>0.05</v>
+      </c>
+      <c r="P36">
+        <v>0.04</v>
+      </c>
+      <c r="Q36">
+        <v>0.09</v>
+      </c>
+      <c r="R36">
+        <v>243</v>
+      </c>
+      <c r="S36">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="N39" s="2"/>
+      <c r="O39" s="4"/>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="N40" s="2"/>
+      <c r="O40" s="4"/>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="N41" s="2"/>
+      <c r="O41" s="4"/>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="N42" s="2"/>
+      <c r="O42" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2787,15 +4053,16 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2846,7 +4113,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -2859,10 +4126,25 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>114</v>
       </c>
       <c r="B11">
         <v>0.72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/2020/보자보자.xlsx
+++ b/2020/보자보자.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19410" windowHeight="7155"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19410" windowHeight="7155" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet4" sheetId="7" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="11" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="126">
   <si>
     <t>결</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -522,7 +522,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>합계 : 성비</t>
+    <t>합계 : 지역 총생산</t>
+  </si>
+  <si>
+    <t>평균</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -578,11 +582,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -640,7 +644,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="ko-KR" altLang="en-US"/>
-              <a:t>평당가</a:t>
+              <a:t>성비</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -752,6 +756,66 @@
           <c:symbol val="none"/>
         </c:marker>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -807,13 +871,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.22</c:v>
+                  <c:v>31289</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.53</c:v>
+                  <c:v>36808</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.4</c:v>
+                  <c:v>38155</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -829,11 +893,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1181174288"/>
-        <c:axId val="1181185168"/>
+        <c:axId val="323911008"/>
+        <c:axId val="705208128"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1181174288"/>
+        <c:axId val="323911008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -876,7 +940,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1181185168"/>
+        <c:crossAx val="705208128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -884,7 +948,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1181185168"/>
+        <c:axId val="705208128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -935,7 +999,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1181174288"/>
+        <c:crossAx val="323911008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1259,8 +1323,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="842543840"/>
-        <c:axId val="842534048"/>
+        <c:axId val="705211392"/>
+        <c:axId val="705211936"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -1365,7 +1429,7 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="842543840"/>
+        <c:axId val="705211392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1408,7 +1472,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="842534048"/>
+        <c:crossAx val="705211936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1416,7 +1480,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="842534048"/>
+        <c:axId val="705211936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1467,7 +1531,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="842543840"/>
+        <c:crossAx val="705211392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2849,7 +2913,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="피벗 테이블4" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="피벗 테이블4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A1:B5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="19">
     <pivotField axis="axisRow" showAll="0">
@@ -2862,13 +2926,13 @@
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -2900,10 +2964,10 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="합계 : 성비" fld="9" baseField="0" baseItem="0"/>
+    <dataField name="합계 : 지역 총생산" fld="3" baseField="0" baseItem="0"/>
   </dataFields>
   <chartFormats count="1">
-    <chartFormat chart="0" format="4" series="1">
+    <chartFormat chart="0" format="8" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -3187,14 +3251,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.125" customWidth="1"/>
+    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -3209,32 +3271,32 @@
       <c r="A2" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B2" s="4">
-        <v>0.22</v>
+      <c r="B2" s="3">
+        <v>31289</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B3" s="4">
-        <v>0.53</v>
+      <c r="B3" s="3">
+        <v>36808</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B4" s="4">
-        <v>0.4</v>
+      <c r="B4" s="3">
+        <v>38155</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B5" s="4">
-        <v>1.1499999999999999</v>
+      <c r="B5" s="3">
+        <v>106252</v>
       </c>
     </row>
   </sheetData>
@@ -3248,8 +3310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S42"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3272,25 +3334,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -3529,11 +3591,11 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -4029,21 +4091,44 @@
         <v>1472</v>
       </c>
     </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>125</v>
+      </c>
+      <c r="B37">
+        <v>448</v>
+      </c>
+      <c r="C37">
+        <v>4.3</v>
+      </c>
+      <c r="D37">
+        <v>37906</v>
+      </c>
+      <c r="E37">
+        <v>1271.9000000000001</v>
+      </c>
+      <c r="F37">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="H37">
+        <v>0.44</v>
+      </c>
+    </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.3">
       <c r="N39" s="2"/>
-      <c r="O39" s="4"/>
+      <c r="O39" s="3"/>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.3">
       <c r="N40" s="2"/>
-      <c r="O40" s="4"/>
+      <c r="O40" s="3"/>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.3">
       <c r="N41" s="2"/>
-      <c r="O41" s="4"/>
+      <c r="O41" s="3"/>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.3">
       <c r="N42" s="2"/>
-      <c r="O42" s="4"/>
+      <c r="O42" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/2020/보자보자.xlsx
+++ b/2020/보자보자.xlsx
@@ -12,13 +12,15 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="19410" windowHeight="7155" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet4" sheetId="7" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="8" r:id="rId1"/>
+    <sheet name="Sheet6" sheetId="11" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="1" r:id="rId5"/>
+    <pivotCache cacheId="13" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="132">
   <si>
     <t>결</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -516,17 +518,39 @@
   </si>
   <si>
     <t>재수가 0.5이상인 학교</t>
-  </si>
-  <si>
-    <t>재수가 0.5이상인 학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>합계 : 지역 총생산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>평균</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평균</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">평균이 그래프에 overload 되었으면 좋겠다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>합계 : 학생 남교사 비</t>
+  </si>
+  <si>
+    <t>교사 여성비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교사 남성비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진학률이 0.5미만인 학교</t>
+  </si>
+  <si>
+    <t>진학률이 0.5미만인 학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>합계 : 평당가</t>
   </si>
 </sst>
 </file>
@@ -619,7 +643,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[보자보자.xlsx]Sheet4!피벗 테이블4</c:name>
+    <c:name>[보자보자.xlsx]Sheet3!피벗 테이블2</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -642,10 +666,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:r>
-              <a:rPr lang="ko-KR" altLang="en-US"/>
-              <a:t>성비</a:t>
-            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -816,6 +837,216 @@
           <c:symbol val="none"/>
         </c:marker>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="9"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="10"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="11"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="12"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="13"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="14"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="15"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="16"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="17"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent5"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="18"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="19"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="20"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="21"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="22"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -828,7 +1059,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet4!$B$1</c:f>
+              <c:f>Sheet3!$B$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -849,35 +1080,35 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet4!$A$2:$A$5</c:f>
+              <c:f>Sheet3!$A$4:$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>재수가 0.5이상인 학교</c:v>
+                  <c:v>진학률이 0.5이상인 학교</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>진학률이 0.5이상인 학교</c:v>
+                  <c:v>취업률이 0.5이상인 학교</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>취업률이 0.5이상인 학교</c:v>
+                  <c:v>평균</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet4!$B$2:$B$5</c:f>
+              <c:f>Sheet3!$B$4:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>31289</c:v>
+                  <c:v>2.5000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>36808</c:v>
+                  <c:v>0.03</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>38155</c:v>
+                  <c:v>0.03</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -893,11 +1124,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="323911008"/>
-        <c:axId val="705208128"/>
+        <c:axId val="2121402368"/>
+        <c:axId val="2121404544"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="323911008"/>
+        <c:axId val="2121402368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -940,7 +1171,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="705208128"/>
+        <c:crossAx val="2121404544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -948,7 +1179,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="705208128"/>
+        <c:axId val="2121404544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -999,7 +1230,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="323911008"/>
+        <c:crossAx val="2121402368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1011,6 +1242,38 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1051,6 +1314,7 @@
         <c14:dropZoneFilter val="1"/>
         <c14:dropZoneCategories val="1"/>
         <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
         <c14:dropZonesVisible val="1"/>
       </c14:pivotOptions>
     </c:ext>
@@ -1059,6 +1323,590 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[보자보자.xlsx]Sheet6!피벗 테이블3</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US"/>
+              <a:t>평당가</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="ko-KR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.40832633420822395"/>
+          <c:y val="0.11934966462525516"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent5"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ko-KR"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout/>
+            </c:ext>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ko-KR"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout/>
+            </c:ext>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet6!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>요약</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ko-KR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet6!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>진학률이 0.5미만인 학교</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>진학률이 0.5이상인 학교</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>평균</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet6!$B$2:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1245.4000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1359.12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1271.9000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="2128440592"/>
+        <c:axId val="2128441136"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2128440592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2128441136"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2128441136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2128440592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ko-KR"/>
@@ -1323,8 +2171,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="705211392"/>
-        <c:axId val="705211936"/>
+        <c:axId val="2121405632"/>
+        <c:axId val="2121400736"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -1429,7 +2277,7 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="705211392"/>
+        <c:axId val="2121405632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1472,7 +2320,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="705211936"/>
+        <c:crossAx val="2121400736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1480,7 +2328,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="705211936"/>
+        <c:axId val="2121400736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1531,7 +2379,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="705211392"/>
+        <c:crossAx val="2121405632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1692,6 +2540,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -2698,7 +3586,545 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="차트 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2733,7 +4159,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2769,20 +4195,21 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="정지원" refreshedDate="44356.03867199074" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="3">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="정지원" refreshedDate="44362.987190856482" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="4">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A33:S36" sheet="Sheet1"/>
+    <worksheetSource ref="A33:S38" sheet="Sheet1"/>
   </cacheSource>
   <cacheFields count="19">
     <cacheField name="분류" numFmtId="0">
-      <sharedItems count="3">
+      <sharedItems count="4">
         <s v="진학률이 0.5이상인 학교"/>
         <s v="취업률이 0.5이상인 학교"/>
         <s v="재수가 0.5이상인 학교"/>
+        <s v="평균"/>
       </sharedItems>
     </cacheField>
     <cacheField name="개수" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="8" maxValue="177"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="8" maxValue="448"/>
     </cacheField>
     <cacheField name="학과 수" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="4.2" maxValue="4.5999999999999996"/>
@@ -2812,7 +4239,7 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.04" maxValue="0.08"/>
     </cacheField>
     <cacheField name="전입비" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.01" maxValue="2.1999999999999999E-2"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.01" maxValue="0.02"/>
     </cacheField>
     <cacheField name="교사성비" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.47" maxValue="0.55000000000000004"/>
@@ -2844,8 +4271,98 @@
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="정지원" refreshedDate="44372.700839467594" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="5">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A33:U38" sheet="Sheet1"/>
+  </cacheSource>
+  <cacheFields count="21">
+    <cacheField name="분류" numFmtId="0">
+      <sharedItems count="5">
+        <s v="진학률이 0.5이상인 학교"/>
+        <s v="진학률이 0.5미만인 학교"/>
+        <s v="취업률이 0.5이상인 학교"/>
+        <s v="재수가 0.5이상인 학교"/>
+        <s v="평균"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="개수" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="8" maxValue="448"/>
+    </cacheField>
+    <cacheField name="학과 수" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="4.2" maxValue="4.5999999999999996"/>
+    </cacheField>
+    <cacheField name="지역 총생산" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="31289" maxValue="38522"/>
+    </cacheField>
+    <cacheField name="평당가" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1063" maxValue="1359.12"/>
+    </cacheField>
+    <cacheField name="집값 모멘텀" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="4.75" maxValue="6.3" count="5">
+        <n v="5.5"/>
+        <n v="4.7699999999999996"/>
+        <n v="4.75"/>
+        <n v="6.3"/>
+        <n v="4.9000000000000004"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="취업률" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.25" maxValue="0.6"/>
+    </cacheField>
+    <cacheField name="진학률" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.2" maxValue="0.6"/>
+    </cacheField>
+    <cacheField name="재수률" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.25" maxValue="0.6"/>
+    </cacheField>
+    <cacheField name="성비" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.22" maxValue="0.53"/>
+    </cacheField>
+    <cacheField name="전출비" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.04" maxValue="0.08"/>
+    </cacheField>
+    <cacheField name="전입비" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.01" maxValue="0.02"/>
+    </cacheField>
+    <cacheField name="교사성비" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.47" maxValue="0.55000000000000004"/>
+    </cacheField>
+    <cacheField name="학생 교사비 " numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.05" maxValue="0.1"/>
+    </cacheField>
+    <cacheField name="학생 남교사 비" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="2.5000000000000001E-2" maxValue="0.05"/>
+    </cacheField>
+    <cacheField name="학생 여교사 비" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="2.5999999999999999E-2" maxValue="0.04"/>
+    </cacheField>
+    <cacheField name="학생 특수교실 비" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.06" maxValue="0.3"/>
+    </cacheField>
+    <cacheField name="학생 학교크기 비" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="94" maxValue="243"/>
+    </cacheField>
+    <cacheField name="학교크기 교실 수 비 " numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1192" maxValue="1472"/>
+    </cacheField>
+    <cacheField name="교사 여성비" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.47" maxValue="0.55000000000000004"/>
+    </cacheField>
+    <cacheField name="교사 남성비" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.44999999999999996" maxValue="0.53"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="3">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="4">
   <r>
     <x v="0"/>
     <n v="154"/>
@@ -2858,7 +4375,7 @@
     <n v="0.25"/>
     <n v="0.53"/>
     <n v="0.04"/>
-    <n v="2.1999999999999999E-2"/>
+    <n v="0.02"/>
     <n v="0.55000000000000004"/>
     <n v="0.06"/>
     <n v="2.5000000000000001E-2"/>
@@ -2909,24 +4426,253 @@
     <n v="243"/>
     <n v="1472"/>
   </r>
+  <r>
+    <x v="3"/>
+    <n v="448"/>
+    <n v="4.3"/>
+    <n v="37906"/>
+    <n v="1271.9000000000001"/>
+    <n v="4.9000000000000004"/>
+    <n v="0.45"/>
+    <n v="0.44"/>
+    <n v="0.29499999999999998"/>
+    <n v="0.44"/>
+    <n v="0.05"/>
+    <n v="0.02"/>
+    <n v="0.52"/>
+    <n v="0.06"/>
+    <n v="0.03"/>
+    <n v="0.03"/>
+    <n v="0.06"/>
+    <n v="111"/>
+    <n v="1385"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="5">
+  <r>
+    <x v="0"/>
+    <n v="154"/>
+    <n v="4.4000000000000004"/>
+    <n v="36808"/>
+    <n v="1359.12"/>
+    <x v="0"/>
+    <n v="0.38"/>
+    <n v="0.6"/>
+    <n v="0.25"/>
+    <n v="0.53"/>
+    <n v="0.04"/>
+    <n v="0.02"/>
+    <n v="0.55000000000000004"/>
+    <n v="0.06"/>
+    <n v="2.5000000000000001E-2"/>
+    <n v="0.03"/>
+    <n v="0.06"/>
+    <n v="94"/>
+    <n v="1192"/>
+    <n v="0.55000000000000004"/>
+    <n v="0.44999999999999996"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="286"/>
+    <n v="4.3"/>
+    <n v="38522"/>
+    <n v="1245.4000000000001"/>
+    <x v="1"/>
+    <n v="0.5"/>
+    <n v="0.35"/>
+    <n v="0.32"/>
+    <n v="0.4"/>
+    <n v="0.05"/>
+    <n v="0.02"/>
+    <n v="0.51"/>
+    <n v="0.06"/>
+    <n v="0.03"/>
+    <n v="0.03"/>
+    <n v="0.3"/>
+    <n v="120"/>
+    <n v="1444"/>
+    <n v="0.51"/>
+    <n v="0.49"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="177"/>
+    <n v="4.2"/>
+    <n v="38155"/>
+    <n v="1269.4000000000001"/>
+    <x v="2"/>
+    <n v="0.6"/>
+    <n v="0.36"/>
+    <n v="0.25"/>
+    <n v="0.4"/>
+    <n v="0.04"/>
+    <n v="0.01"/>
+    <n v="0.48"/>
+    <n v="0.05"/>
+    <n v="0.03"/>
+    <n v="2.5999999999999999E-2"/>
+    <n v="0.06"/>
+    <n v="99"/>
+    <n v="1290"/>
+    <n v="0.48"/>
+    <n v="0.52"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="8"/>
+    <n v="4.5999999999999996"/>
+    <n v="31289"/>
+    <n v="1063"/>
+    <x v="3"/>
+    <n v="0.25"/>
+    <n v="0.2"/>
+    <n v="0.6"/>
+    <n v="0.22"/>
+    <n v="0.08"/>
+    <n v="0.02"/>
+    <n v="0.47"/>
+    <n v="0.1"/>
+    <n v="0.05"/>
+    <n v="0.04"/>
+    <n v="0.09"/>
+    <n v="243"/>
+    <n v="1472"/>
+    <n v="0.47"/>
+    <n v="0.53"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="448"/>
+    <n v="4.3"/>
+    <n v="37906"/>
+    <n v="1271.9000000000001"/>
+    <x v="4"/>
+    <n v="0.45"/>
+    <n v="0.44"/>
+    <n v="0.29499999999999998"/>
+    <n v="0.44"/>
+    <n v="0.05"/>
+    <n v="0.02"/>
+    <n v="0.52"/>
+    <n v="0.06"/>
+    <n v="0.03"/>
+    <n v="0.03"/>
+    <n v="0.06"/>
+    <n v="111"/>
+    <n v="1385"/>
+    <n v="0.53"/>
+    <n v="0.47"/>
+  </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="피벗 테이블4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
-  <location ref="A1:B5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="피벗 테이블2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
+  <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="19">
     <pivotField axis="axisRow" showAll="0">
-      <items count="4">
-        <item x="2"/>
+      <items count="5">
+        <item h="1" x="2"/>
         <item x="0"/>
         <item x="1"/>
+        <item x="3"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="합계 : 학생 남교사 비" fld="14" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="22" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="피벗 테이블3" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A1:B5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="21">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item h="1" x="3"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item h="1" x="2"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -2948,13 +4694,13 @@
   </rowFields>
   <rowItems count="4">
     <i>
-      <x/>
-    </i>
-    <i>
       <x v="1"/>
     </i>
     <i>
       <x v="2"/>
+    </i>
+    <i>
+      <x v="4"/>
     </i>
     <i t="grand">
       <x/>
@@ -2964,10 +4710,10 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="합계 : 지역 총생산" fld="3" baseField="0" baseItem="0"/>
+    <dataField name="합계 : 평당가" fld="4" baseField="0" baseItem="0"/>
   </dataFields>
   <chartFormats count="1">
-    <chartFormat chart="0" format="8" series="1">
+    <chartFormat chart="0" format="4" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -3249,54 +4995,62 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A3:D21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.75" customWidth="1"/>
+    <col min="3" max="3" width="11.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B2" s="3">
-        <v>31289</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B3" s="3">
-        <v>36808</v>
+      <c r="B3" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B4" s="3">
-        <v>38155</v>
+        <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B5" s="3">
-        <v>106252</v>
+      <c r="B7" s="3">
+        <v>8.4999999999999992E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D21" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -3308,10 +5062,71 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S42"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1245.4000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1359.12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1271.9000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B5" s="3">
+        <v>3876.42</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U43"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3326,11 +5141,12 @@
     <col min="8" max="11" width="9.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="32.375" customWidth="1"/>
+    <col min="14" max="14" width="12.375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="18" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14.375" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="16.5" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="20" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
@@ -3855,7 +5671,7 @@
         <v>3.1504849714854316E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>40</v>
       </c>
@@ -3913,8 +5729,14 @@
       <c r="S33" t="s">
         <v>58</v>
       </c>
+      <c r="T33" t="s">
+        <v>127</v>
+      </c>
+      <c r="U33" t="s">
+        <v>128</v>
+      </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>119</v>
       </c>
@@ -3949,7 +5771,7 @@
         <v>0.04</v>
       </c>
       <c r="L34">
-        <v>2.1999999999999999E-2</v>
+        <v>0.02</v>
       </c>
       <c r="M34">
         <v>0.55000000000000004</v>
@@ -3972,163 +5794,293 @@
       <c r="S34">
         <v>1192</v>
       </c>
+      <c r="T34">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="U34">
+        <f>1-T34</f>
+        <v>0.44999999999999996</v>
+      </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="B35">
-        <v>177</v>
+        <v>286</v>
       </c>
       <c r="C35">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="D35">
-        <v>38155</v>
+        <v>38522</v>
       </c>
       <c r="E35">
-        <v>1269.4000000000001</v>
+        <v>1245.4000000000001</v>
       </c>
       <c r="F35">
-        <v>4.75</v>
+        <v>4.7699999999999996</v>
       </c>
       <c r="G35">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H35">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="I35">
-        <v>0.25</v>
+        <v>0.32</v>
       </c>
       <c r="J35">
         <v>0.4</v>
       </c>
       <c r="K35">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="L35">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="M35">
-        <v>0.47</v>
+        <v>0.51</v>
       </c>
       <c r="N35">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="O35">
         <v>0.03</v>
       </c>
       <c r="P35">
+        <v>0.03</v>
+      </c>
+      <c r="Q35">
+        <v>0.3</v>
+      </c>
+      <c r="R35">
+        <v>120</v>
+      </c>
+      <c r="S35">
+        <v>1444</v>
+      </c>
+      <c r="T35">
+        <v>0.51</v>
+      </c>
+      <c r="U35">
+        <f>1-T35</f>
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>121</v>
+      </c>
+      <c r="B36">
+        <v>177</v>
+      </c>
+      <c r="C36">
+        <v>4.2</v>
+      </c>
+      <c r="D36">
+        <v>38155</v>
+      </c>
+      <c r="E36">
+        <v>1269.4000000000001</v>
+      </c>
+      <c r="F36">
+        <v>4.75</v>
+      </c>
+      <c r="G36">
+        <v>0.6</v>
+      </c>
+      <c r="H36">
+        <v>0.36</v>
+      </c>
+      <c r="I36">
+        <v>0.25</v>
+      </c>
+      <c r="J36">
+        <v>0.4</v>
+      </c>
+      <c r="K36">
+        <v>0.04</v>
+      </c>
+      <c r="L36">
+        <v>0.01</v>
+      </c>
+      <c r="M36">
+        <v>0.48</v>
+      </c>
+      <c r="N36">
+        <v>0.05</v>
+      </c>
+      <c r="O36">
+        <v>0.03</v>
+      </c>
+      <c r="P36">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="Q35">
+      <c r="Q36">
         <v>0.06</v>
       </c>
-      <c r="R35">
+      <c r="R36">
         <v>99</v>
       </c>
-      <c r="S35">
+      <c r="S36">
         <v>1290</v>
       </c>
+      <c r="T36">
+        <v>0.48</v>
+      </c>
+      <c r="U36">
+        <f t="shared" ref="U36" si="0">1-T36</f>
+        <v>0.52</v>
+      </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>123</v>
-      </c>
-      <c r="B36">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>122</v>
+      </c>
+      <c r="B37">
         <v>8</v>
       </c>
-      <c r="C36">
+      <c r="C37">
         <v>4.5999999999999996</v>
       </c>
-      <c r="D36">
+      <c r="D37">
         <v>31289</v>
       </c>
-      <c r="E36">
+      <c r="E37">
         <v>1063</v>
       </c>
-      <c r="F36">
+      <c r="F37">
         <v>6.3</v>
       </c>
-      <c r="G36">
+      <c r="G37">
         <v>0.25</v>
       </c>
-      <c r="H36">
+      <c r="H37">
         <v>0.2</v>
       </c>
-      <c r="I36">
+      <c r="I37">
         <v>0.6</v>
       </c>
-      <c r="J36">
+      <c r="J37">
         <v>0.22</v>
       </c>
-      <c r="K36">
+      <c r="K37">
         <v>0.08</v>
       </c>
-      <c r="L36">
+      <c r="L37">
         <v>0.02</v>
       </c>
-      <c r="M36">
+      <c r="M37">
         <v>0.47</v>
       </c>
-      <c r="N36">
+      <c r="N37">
         <v>0.1</v>
       </c>
-      <c r="O36">
+      <c r="O37">
         <v>0.05</v>
       </c>
-      <c r="P36">
+      <c r="P37">
         <v>0.04</v>
       </c>
-      <c r="Q36">
+      <c r="Q37">
         <v>0.09</v>
       </c>
-      <c r="R36">
+      <c r="R37">
         <v>243</v>
       </c>
-      <c r="S36">
+      <c r="S37">
         <v>1472</v>
       </c>
+      <c r="T37">
+        <v>0.47</v>
+      </c>
+      <c r="U37">
+        <f>1-T37</f>
+        <v>0.53</v>
+      </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>125</v>
-      </c>
-      <c r="B37">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>124</v>
+      </c>
+      <c r="B38">
         <v>448</v>
       </c>
-      <c r="C37">
+      <c r="C38">
         <v>4.3</v>
       </c>
-      <c r="D37">
+      <c r="D38">
         <v>37906</v>
       </c>
-      <c r="E37">
+      <c r="E38">
         <v>1271.9000000000001</v>
       </c>
-      <c r="F37">
+      <c r="F38">
         <v>4.9000000000000004</v>
       </c>
-      <c r="H37">
+      <c r="G38">
+        <v>0.45</v>
+      </c>
+      <c r="H38">
         <v>0.44</v>
       </c>
+      <c r="I38">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="J38">
+        <v>0.44</v>
+      </c>
+      <c r="K38">
+        <v>0.05</v>
+      </c>
+      <c r="L38">
+        <v>0.02</v>
+      </c>
+      <c r="M38">
+        <v>0.52</v>
+      </c>
+      <c r="N38">
+        <v>0.06</v>
+      </c>
+      <c r="O38">
+        <v>0.03</v>
+      </c>
+      <c r="P38">
+        <v>0.03</v>
+      </c>
+      <c r="Q38">
+        <v>0.06</v>
+      </c>
+      <c r="R38">
+        <v>111</v>
+      </c>
+      <c r="S38">
+        <v>1385</v>
+      </c>
+      <c r="T38">
+        <v>0.53</v>
+      </c>
+      <c r="U38">
+        <f>1-T38</f>
+        <v>0.47</v>
+      </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="N39" s="2"/>
-      <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
       <c r="N40" s="2"/>
       <c r="O40" s="3"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
       <c r="N41" s="2"/>
       <c r="O41" s="3"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
       <c r="N42" s="2"/>
       <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="N43" s="2"/>
+      <c r="O43" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4142,7 +6094,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B17"/>
   <sheetViews>
